--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehdrm\OneDrive\바탕 화면\직업선호도\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\ssafy8\03.학생용\algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887F2C9C-4AE9-437B-AB78-ED131EC1A3B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="8385" xr2:uid="{DABDF868-FE06-4808-8B1D-F57B74CC0876}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +23,168 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 사용자</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DP</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>긴</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한데</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좀</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다른개념의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> DP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대 힙, 최소 힙
+동시에 사용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정렬</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>풀어본 뒤 난이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평범한 배낭_BOJ12865</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,19 +234,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가운데를 말해요_BOJ1655</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lOO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 배낭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄 세우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데를 말해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀어본 뒤 난이도 &amp; 분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +293,29 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,9 +340,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,82 +663,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5BA19-2F7F-4716-AEFD-B739CBB64B7C}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="6" max="11" width="9" style="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="7" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>12865</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1655</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\ssafy8\03.학생용\algorithm_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudtk\OneDrive\바탕 화면\ssafy8\03.webex_student(학생용)\algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83B6B9-7785-4EE0-ABFA-0493E03B58F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="8385"/>
+    <workbookView xWindow="40350" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +236,6 @@
   </si>
   <si>
     <t>하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +349,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -663,11 +660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -713,13 +710,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>12865</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -728,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -736,13 +733,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1655</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -751,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>10</v>
@@ -759,24 +756,21 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>2252</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudtk\OneDrive\바탕 화면\ssafy8\03.webex_student(학생용)\algorithm_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83B6B9-7785-4EE0-ABFA-0493E03B58F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2C4A7-6EE0-4393-92EE-983D341981A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40350" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
+    <author>DongGeun YOON</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -177,6 +178,229 @@
             <charset val="129"/>
           </rPr>
           <t>정렬</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{914C061D-99A2-4731-AA51-1CDE2CAC8ECA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SegmentTree
+(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이론먼저</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현해보기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강추</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>응용한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최대값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최솟값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구간곱이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -185,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +492,26 @@
   </si>
   <si>
     <t>풀어본 뒤 난이도 &amp; 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구간 합 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +558,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +606,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,6 +1031,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2042</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\algorithm_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\ssafy8\03.학생용\algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2C4A7-6EE0-4393-92EE-983D341981A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40350" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40350" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 사용자</author>
     <author>DongGeun YOON</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{914C061D-99A2-4731-AA51-1CDE2CAC8ECA}">
+    <comment ref="E5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,6 +400,38 @@
             <family val="2"/>
           </rPr>
           <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">카카오 2022 기출
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>누적합
+누적합의 개념을 모르면 효율성을 절대 통과 못함</t>
         </r>
       </text>
     </comment>
@@ -409,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lOO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,13 +539,33 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴되지 않은 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,9 +641,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,16 +985,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -967,13 +1017,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>12865</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -982,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -990,13 +1040,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1655</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1005,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>10</v>
@@ -1013,42 +1063,59 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2252</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2042</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,6 +555,10 @@
   </si>
   <si>
     <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -971,7 +975,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,6 +1101,9 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>24</v>
       </c>

--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\ssafy8\03.학생용\algorithm_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6CAB1E-3DAF-4EDB-937B-88E68F8D7E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40350" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="40350" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
     <author>DongGeun YOON</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="1" shapeId="0">
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,13 +564,17 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -971,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1124,6 +1129,9 @@
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\algorithm_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\C++ study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6CAB1E-3DAF-4EDB-937B-88E68F8D7E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4853B-BB8A-40E4-AB53-52150EE0C011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40350" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28755" yWindow="7065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,6 +568,10 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,12 +654,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,7 +981,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,11 +995,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" t="s">
         <v>7</v>
       </c>
@@ -1106,6 +1107,9 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1126,7 +1130,7 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="1" t="s">

--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\C++ study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4853B-BB8A-40E4-AB53-52150EE0C011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B631188-2294-4D4E-8172-13606E5A2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28755" yWindow="7065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1087,6 +1087,9 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>

--- a/알고나면 쉬운 추천 문제.xlsx
+++ b/알고나면 쉬운 추천 문제.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\C++ study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B631188-2294-4D4E-8172-13606E5A2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1413D51D-2FB7-4B86-8425-EED0344AB8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="7065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>김진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,6 +1041,9 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
